--- a/state_results/Lakes/LakePauriComposite_10fe96c510.xlsx
+++ b/state_results/Lakes/LakePauriComposite_10fe96c510.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>

--- a/state_results/Lakes/LakePauriComposite_10fe96c510.xlsx
+++ b/state_results/Lakes/LakePauriComposite_10fe96c510.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="59">
   <si>
     <t>site name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Lake</t>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,13 +636,13 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>7.05</v>
       </c>
       <c r="G2">
-        <v>18.5541001401504</v>
+        <v>18.5596048116742</v>
       </c>
       <c r="H2">
         <v>172</v>
@@ -666,19 +669,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -695,13 +698,13 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>7.05</v>
       </c>
       <c r="G3">
-        <v>18.5541001401504</v>
+        <v>18.5596048116742</v>
       </c>
       <c r="H3">
         <v>172</v>
@@ -728,19 +731,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -757,13 +760,13 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4">
-        <v>2.14941</v>
+        <v>2.15995</v>
       </c>
       <c r="G4">
-        <v>14.2295300428278</v>
+        <v>14.2382409453075</v>
       </c>
       <c r="H4">
         <v>160</v>
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.13934</v>
+        <v>0.15787</v>
       </c>
       <c r="M4">
         <v>14</v>
@@ -796,19 +799,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -825,13 +828,13 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>2.14941</v>
+        <v>2.15995</v>
       </c>
       <c r="G5">
-        <v>14.2295300428278</v>
+        <v>14.2382409453075</v>
       </c>
       <c r="H5">
         <v>160</v>
@@ -846,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.13934</v>
+        <v>0.15787</v>
       </c>
       <c r="M5">
         <v>14</v>
@@ -864,19 +867,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -893,13 +896,13 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6">
-        <v>2.14941</v>
+        <v>2.15995</v>
       </c>
       <c r="G6">
-        <v>14.2295300428278</v>
+        <v>14.2382409453075</v>
       </c>
       <c r="H6">
         <v>160</v>
@@ -914,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.13934</v>
+        <v>0.15787</v>
       </c>
       <c r="M6">
         <v>14</v>
@@ -932,19 +935,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -961,13 +964,13 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7">
-        <v>2.14941</v>
+        <v>2.15995</v>
       </c>
       <c r="G7">
-        <v>14.2295300428278</v>
+        <v>14.2382409453075</v>
       </c>
       <c r="H7">
         <v>160</v>
@@ -982,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.13934</v>
+        <v>0.15787</v>
       </c>
       <c r="M7">
         <v>14</v>
@@ -1000,19 +1003,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1026,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>0.0616</v>
       </c>
       <c r="G8">
-        <v>0.17733388895284</v>
+        <v>0.17730386704695</v>
       </c>
       <c r="H8">
         <v>0.667</v>
@@ -1059,19 +1062,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1088,7 +1091,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>1.045</v>
@@ -1121,19 +1124,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1150,7 +1153,7 @@
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10">
         <v>1.045</v>
@@ -1183,19 +1186,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1212,7 +1215,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>0.0535</v>
@@ -1245,19 +1248,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1274,13 +1277,13 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>13.5</v>
       </c>
       <c r="G12">
-        <v>21.8581135497557</v>
+        <v>21.8559454919416</v>
       </c>
       <c r="H12">
         <v>172</v>
@@ -1307,19 +1310,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1336,13 +1339,13 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>13.5</v>
       </c>
       <c r="G13">
-        <v>21.8581135497557</v>
+        <v>21.8559454919416</v>
       </c>
       <c r="H13">
         <v>172</v>
@@ -1369,19 +1372,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1398,13 +1401,13 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14">
-        <v>0.39639</v>
+        <v>0.41429</v>
       </c>
       <c r="G14">
-        <v>13.1884513830513</v>
+        <v>13.1992045471546</v>
       </c>
       <c r="H14">
         <v>160</v>
@@ -1419,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.32358</v>
+        <v>0.34272</v>
       </c>
       <c r="M14">
         <v>12.4</v>
@@ -1437,19 +1440,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1466,13 +1469,13 @@
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15">
-        <v>0.39639</v>
+        <v>0.41429</v>
       </c>
       <c r="G15">
-        <v>13.1884513830513</v>
+        <v>13.1992045471546</v>
       </c>
       <c r="H15">
         <v>160</v>
@@ -1487,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.32358</v>
+        <v>0.34272</v>
       </c>
       <c r="M15">
         <v>12.4</v>
@@ -1505,19 +1508,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1534,13 +1537,13 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16">
-        <v>0.39639</v>
+        <v>0.41429</v>
       </c>
       <c r="G16">
-        <v>13.1884513830513</v>
+        <v>13.1992045471546</v>
       </c>
       <c r="H16">
         <v>160</v>
@@ -1555,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.32358</v>
+        <v>0.34272</v>
       </c>
       <c r="M16">
         <v>12.4</v>
@@ -1573,19 +1576,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1602,13 +1605,13 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17">
-        <v>0.39639</v>
+        <v>0.41429</v>
       </c>
       <c r="G17">
-        <v>13.1884513830513</v>
+        <v>13.1992045471546</v>
       </c>
       <c r="H17">
         <v>160</v>
@@ -1623,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.32358</v>
+        <v>0.34272</v>
       </c>
       <c r="M17">
         <v>12.4</v>
@@ -1641,19 +1644,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1667,13 +1670,13 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18">
-        <v>0.01299</v>
+        <v>0.01265</v>
       </c>
       <c r="G18">
-        <v>0.116621085040401</v>
+        <v>0.116611097889899</v>
       </c>
       <c r="H18">
         <v>0.667</v>
@@ -1700,19 +1703,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1729,7 +1732,7 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>1.03</v>
@@ -1762,19 +1765,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1791,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20">
         <v>1.03</v>
@@ -1824,19 +1827,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1853,7 +1856,7 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21">
         <v>0.0595</v>
@@ -1886,19 +1889,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1915,7 +1918,7 @@
         <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>0.3215</v>
@@ -1948,19 +1951,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1977,13 +1980,13 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>11.5</v>
       </c>
       <c r="G23">
-        <v>18.8835043665617</v>
+        <v>18.8807429441182</v>
       </c>
       <c r="H23">
         <v>172</v>
@@ -2010,19 +2013,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2039,13 +2042,13 @@
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24">
         <v>11.5</v>
       </c>
       <c r="G24">
-        <v>18.8835043665617</v>
+        <v>18.8807429441182</v>
       </c>
       <c r="H24">
         <v>172</v>
@@ -2072,19 +2075,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2101,13 +2104,13 @@
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25">
-        <v>12.802149401202</v>
+        <v>12.809776048388</v>
       </c>
       <c r="H25">
         <v>180</v>
@@ -2140,19 +2143,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2169,13 +2172,13 @@
         <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26">
-        <v>12.802149401202</v>
+        <v>12.809776048388</v>
       </c>
       <c r="H26">
         <v>180</v>
@@ -2208,19 +2211,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2237,13 +2240,13 @@
         <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
       <c r="G27">
-        <v>12.802149401202</v>
+        <v>12.809776048388</v>
       </c>
       <c r="H27">
         <v>180</v>
@@ -2276,19 +2279,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2305,13 +2308,13 @@
         <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>4</v>
       </c>
       <c r="G28">
-        <v>12.802149401202</v>
+        <v>12.809776048388</v>
       </c>
       <c r="H28">
         <v>180</v>
@@ -2344,19 +2347,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2373,13 +2376,13 @@
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29">
         <v>0.01086</v>
       </c>
       <c r="G29">
-        <v>0.0189428135335281</v>
+        <v>0.0189859703352261</v>
       </c>
       <c r="H29">
         <v>0.138689802630543</v>
@@ -2397,7 +2400,7 @@
         <v>0.03392</v>
       </c>
       <c r="O29">
-        <v>0.03889</v>
+        <v>0.03923</v>
       </c>
       <c r="P29">
         <v>1779379.32093</v>
@@ -2406,19 +2409,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2435,13 +2438,13 @@
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30">
         <v>0.01086</v>
       </c>
       <c r="G30">
-        <v>0.0189428135335281</v>
+        <v>0.0189859703352261</v>
       </c>
       <c r="H30">
         <v>0.138689802630543</v>
@@ -2459,7 +2462,7 @@
         <v>0.03392</v>
       </c>
       <c r="O30">
-        <v>0.03889</v>
+        <v>0.03923</v>
       </c>
       <c r="P30">
         <v>1779379.32093</v>
@@ -2468,19 +2471,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2494,13 +2497,13 @@
         <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <v>0.018</v>
       </c>
       <c r="G31">
-        <v>0.0766930163163403</v>
+        <v>0.07670999970055491</v>
       </c>
       <c r="H31">
         <v>0.44</v>
@@ -2509,7 +2512,7 @@
         <v>0.3835</v>
       </c>
       <c r="L31">
-        <v>0.00292</v>
+        <v>0.00308</v>
       </c>
       <c r="M31">
         <v>0.1021</v>
@@ -2527,19 +2530,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2553,7 +2556,7 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32">
         <v>7.77</v>
@@ -2586,16 +2589,16 @@
         <v>5572535.10786</v>
       </c>
       <c r="R32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2612,7 +2615,7 @@
         <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33">
         <v>0.96</v>
@@ -2645,19 +2648,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2674,7 +2677,7 @@
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>0.96</v>
@@ -2707,19 +2710,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2736,7 +2739,7 @@
         <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35">
         <v>0.0465</v>
@@ -2769,19 +2772,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2798,7 +2801,7 @@
         <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36">
         <v>0.4988</v>
@@ -2831,19 +2834,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2860,13 +2863,13 @@
         <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>12</v>
       </c>
       <c r="G37">
-        <v>18.7695172899993</v>
+        <v>18.7671290327509</v>
       </c>
       <c r="H37">
         <v>172</v>
@@ -2893,19 +2896,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -2922,13 +2925,13 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38">
         <v>12</v>
       </c>
       <c r="G38">
-        <v>18.7695172899993</v>
+        <v>18.7671290327509</v>
       </c>
       <c r="H38">
         <v>172</v>
@@ -2955,19 +2958,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -2984,13 +2987,13 @@
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39">
-        <v>0.99157</v>
+        <v>0.94465</v>
       </c>
       <c r="G39">
-        <v>11.010020696685</v>
+        <v>11.011688699715</v>
       </c>
       <c r="H39">
         <v>180</v>
@@ -3005,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>2.42453</v>
+        <v>2.41168</v>
       </c>
       <c r="M39">
         <v>12</v>
@@ -3023,19 +3026,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3052,13 +3055,13 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40">
-        <v>0.99157</v>
+        <v>0.94465</v>
       </c>
       <c r="G40">
-        <v>11.010020696685</v>
+        <v>11.011688699715</v>
       </c>
       <c r="H40">
         <v>180</v>
@@ -3073,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>2.42453</v>
+        <v>2.41168</v>
       </c>
       <c r="M40">
         <v>12</v>
@@ -3091,19 +3094,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3120,13 +3123,13 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41">
-        <v>0.99157</v>
+        <v>0.94465</v>
       </c>
       <c r="G41">
-        <v>11.010020696685</v>
+        <v>11.011688699715</v>
       </c>
       <c r="H41">
         <v>180</v>
@@ -3141,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>2.42453</v>
+        <v>2.41168</v>
       </c>
       <c r="M41">
         <v>12</v>
@@ -3159,19 +3162,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3188,13 +3191,13 @@
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42">
-        <v>0.99157</v>
+        <v>0.94465</v>
       </c>
       <c r="G42">
-        <v>11.010020696685</v>
+        <v>11.011688699715</v>
       </c>
       <c r="H42">
         <v>180</v>
@@ -3209,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>2.42453</v>
+        <v>2.41168</v>
       </c>
       <c r="M42">
         <v>12</v>
@@ -3227,19 +3230,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3256,13 +3259,13 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43">
         <v>0.011</v>
       </c>
       <c r="G43">
-        <v>0.0192595931050638</v>
+        <v>0.0192926799863656</v>
       </c>
       <c r="H43">
         <v>0.138689802630543</v>
@@ -3277,7 +3280,7 @@
         <v>0.03338</v>
       </c>
       <c r="N43">
-        <v>0.03671</v>
+        <v>0.0371</v>
       </c>
       <c r="O43">
         <v>0.04215</v>
@@ -3289,19 +3292,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3318,13 +3321,13 @@
         <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44">
         <v>0.011</v>
       </c>
       <c r="G44">
-        <v>0.0192595931050638</v>
+        <v>0.0192926799863656</v>
       </c>
       <c r="H44">
         <v>0.138689802630543</v>
@@ -3339,7 +3342,7 @@
         <v>0.03338</v>
       </c>
       <c r="N44">
-        <v>0.03671</v>
+        <v>0.0371</v>
       </c>
       <c r="O44">
         <v>0.04215</v>
@@ -3351,19 +3354,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3377,13 +3380,13 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45">
         <v>0.022</v>
       </c>
       <c r="G45">
-        <v>0.062976009291315</v>
+        <v>0.0630003117660223</v>
       </c>
       <c r="H45">
         <v>0.44</v>
@@ -3392,7 +3395,7 @@
         <v>0.3448</v>
       </c>
       <c r="L45">
-        <v>0.0033</v>
+        <v>0.00368</v>
       </c>
       <c r="M45">
         <v>0.08989999999999999</v>
@@ -3410,19 +3413,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3436,7 +3439,7 @@
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46">
         <v>7.74</v>
@@ -3469,16 +3472,16 @@
         <v>5572535.10786</v>
       </c>
       <c r="R46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3495,7 +3498,7 @@
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47">
         <v>0.96</v>
@@ -3528,19 +3531,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3557,7 +3560,7 @@
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48">
         <v>0.96</v>
@@ -3590,19 +3593,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3619,7 +3622,7 @@
         <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49">
         <v>0.049</v>
@@ -3652,19 +3655,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3681,7 +3684,7 @@
         <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50">
         <v>0.5762</v>
@@ -3714,19 +3717,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3743,13 +3746,13 @@
         <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51">
         <v>12.5</v>
       </c>
       <c r="G51">
-        <v>20.8928726028255</v>
+        <v>20.8909516132996</v>
       </c>
       <c r="H51">
         <v>172</v>
@@ -3776,19 +3779,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3805,13 +3808,13 @@
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F52">
         <v>12.5</v>
       </c>
       <c r="G52">
-        <v>20.8928726028255</v>
+        <v>20.8909516132996</v>
       </c>
       <c r="H52">
         <v>172</v>
@@ -3838,19 +3841,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -3867,13 +3870,13 @@
         <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F53">
-        <v>1.48475</v>
+        <v>1.34372</v>
       </c>
       <c r="G53">
-        <v>13.1687821047097</v>
+        <v>13.1527940904222</v>
       </c>
       <c r="H53">
         <v>233</v>
@@ -3888,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>2.66642</v>
+        <v>2.61199</v>
       </c>
       <c r="M53">
         <v>9.199999999999999</v>
@@ -3906,19 +3909,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -3935,13 +3938,13 @@
         <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F54">
-        <v>1.48475</v>
+        <v>1.34372</v>
       </c>
       <c r="G54">
-        <v>13.1687821047097</v>
+        <v>13.1527940904222</v>
       </c>
       <c r="H54">
         <v>233</v>
@@ -3956,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>2.66642</v>
+        <v>2.61199</v>
       </c>
       <c r="M54">
         <v>9.199999999999999</v>
@@ -3974,19 +3977,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4003,13 +4006,13 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F55">
-        <v>1.48475</v>
+        <v>1.34372</v>
       </c>
       <c r="G55">
-        <v>13.1687821047097</v>
+        <v>13.1527940904222</v>
       </c>
       <c r="H55">
         <v>233</v>
@@ -4024,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>2.66642</v>
+        <v>2.61199</v>
       </c>
       <c r="M55">
         <v>9.199999999999999</v>
@@ -4042,19 +4045,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4071,13 +4074,13 @@
         <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F56">
-        <v>1.48475</v>
+        <v>1.34372</v>
       </c>
       <c r="G56">
-        <v>13.1687821047097</v>
+        <v>13.1527940904222</v>
       </c>
       <c r="H56">
         <v>233</v>
@@ -4092,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>2.66642</v>
+        <v>2.61199</v>
       </c>
       <c r="M56">
         <v>9.199999999999999</v>
@@ -4110,19 +4113,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4139,13 +4142,13 @@
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F57">
         <v>0.01262</v>
       </c>
       <c r="G57">
-        <v>0.0222233301922423</v>
+        <v>0.0222525244992733</v>
       </c>
       <c r="H57">
         <v>0.138689802630543</v>
@@ -4157,10 +4160,10 @@
         <v>0.00536</v>
       </c>
       <c r="M57">
-        <v>0.03696</v>
+        <v>0.03765</v>
       </c>
       <c r="N57">
-        <v>0.03905</v>
+        <v>0.03932</v>
       </c>
       <c r="O57">
         <v>0.05185</v>
@@ -4172,19 +4175,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4201,13 +4204,13 @@
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F58">
         <v>0.01262</v>
       </c>
       <c r="G58">
-        <v>0.0222233301922423</v>
+        <v>0.0222525244992733</v>
       </c>
       <c r="H58">
         <v>0.138689802630543</v>
@@ -4219,10 +4222,10 @@
         <v>0.00536</v>
       </c>
       <c r="M58">
-        <v>0.03696</v>
+        <v>0.03765</v>
       </c>
       <c r="N58">
-        <v>0.03905</v>
+        <v>0.03932</v>
       </c>
       <c r="O58">
         <v>0.05185</v>
@@ -4234,19 +4237,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4260,13 +4263,13 @@
         <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F59">
         <v>0.031</v>
       </c>
       <c r="G59">
-        <v>0.0836980944299708</v>
+        <v>0.0837176420726701</v>
       </c>
       <c r="H59">
         <v>0.458</v>
@@ -4275,7 +4278,7 @@
         <v>0.4292</v>
       </c>
       <c r="L59">
-        <v>0.00465</v>
+        <v>0.00484</v>
       </c>
       <c r="M59">
         <v>0.1224</v>
@@ -4293,19 +4296,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4319,7 +4322,7 @@
         <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60">
         <v>7.75</v>
@@ -4352,16 +4355,16 @@
         <v>5572535.10786</v>
       </c>
       <c r="R60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4378,7 +4381,7 @@
         <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F61">
         <v>1.015</v>
@@ -4411,19 +4414,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4440,7 +4443,7 @@
         <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62">
         <v>1.015</v>
@@ -4473,19 +4476,19 @@
         <v>5572535.10786</v>
       </c>
       <c r="R62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4502,7 +4505,7 @@
         <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F63">
         <v>0.0595</v>
@@ -4535,19 +4538,902 @@
         <v>5572535.10786</v>
       </c>
       <c r="R63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64">
+        <v>0.3718</v>
+      </c>
+      <c r="G64">
+        <v>1.26284254901961</v>
+      </c>
+      <c r="H64">
+        <v>12.884</v>
+      </c>
+      <c r="I64">
+        <v>3.70478</v>
+      </c>
+      <c r="L64">
+        <v>1.35244</v>
+      </c>
+      <c r="M64">
+        <v>2.04715</v>
+      </c>
+      <c r="N64">
+        <v>2.29985</v>
+      </c>
+      <c r="O64">
+        <v>3.40334</v>
+      </c>
+      <c r="P64">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q64">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R64" t="s">
+        <v>48</v>
+      </c>
+      <c r="S64" t="s">
+        <v>49</v>
+      </c>
+      <c r="T64" t="s">
+        <v>50</v>
+      </c>
+      <c r="U64" t="s">
+        <v>51</v>
+      </c>
+      <c r="V64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>16.9370169850593</v>
+      </c>
+      <c r="H65">
+        <v>85</v>
+      </c>
+      <c r="I65">
+        <v>61.75</v>
+      </c>
+      <c r="L65">
+        <v>14</v>
+      </c>
+      <c r="M65">
+        <v>21.3</v>
+      </c>
+      <c r="N65">
+        <v>22.83</v>
+      </c>
+      <c r="O65">
+        <v>46.56</v>
+      </c>
+      <c r="P65">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q65">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R65" t="s">
+        <v>48</v>
+      </c>
+      <c r="S65" t="s">
+        <v>49</v>
+      </c>
+      <c r="T65" t="s">
+        <v>50</v>
+      </c>
+      <c r="U65" t="s">
+        <v>51</v>
+      </c>
+      <c r="V65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66">
+        <v>16.9370169850593</v>
+      </c>
+      <c r="H66">
+        <v>85</v>
+      </c>
+      <c r="I66">
+        <v>61.75</v>
+      </c>
+      <c r="L66">
+        <v>14</v>
+      </c>
+      <c r="M66">
+        <v>21.3</v>
+      </c>
+      <c r="N66">
+        <v>22.83</v>
+      </c>
+      <c r="O66">
+        <v>46.56</v>
+      </c>
+      <c r="P66">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q66">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R66" t="s">
+        <v>48</v>
+      </c>
+      <c r="S66" t="s">
+        <v>49</v>
+      </c>
+      <c r="T66" t="s">
+        <v>50</v>
+      </c>
+      <c r="U66" t="s">
+        <v>51</v>
+      </c>
+      <c r="V66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>14.7369605314377</v>
+      </c>
+      <c r="H67">
+        <v>233</v>
+      </c>
+      <c r="I67">
+        <v>118.67</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>6</v>
+      </c>
+      <c r="M67">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N67">
+        <v>12</v>
+      </c>
+      <c r="O67">
+        <v>17.692</v>
+      </c>
+      <c r="P67">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q67">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R67" t="s">
+        <v>48</v>
+      </c>
+      <c r="S67" t="s">
+        <v>49</v>
+      </c>
+      <c r="T67" t="s">
+        <v>50</v>
+      </c>
+      <c r="U67" t="s">
+        <v>51</v>
+      </c>
+      <c r="V67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>14.7369605314377</v>
+      </c>
+      <c r="H68">
+        <v>233</v>
+      </c>
+      <c r="I68">
+        <v>118.67</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>6</v>
+      </c>
+      <c r="M68">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N68">
+        <v>12</v>
+      </c>
+      <c r="O68">
+        <v>17.692</v>
+      </c>
+      <c r="P68">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q68">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R68" t="s">
+        <v>48</v>
+      </c>
+      <c r="S68" t="s">
+        <v>49</v>
+      </c>
+      <c r="T68" t="s">
+        <v>50</v>
+      </c>
+      <c r="U68" t="s">
+        <v>51</v>
+      </c>
+      <c r="V68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>14.7369605314377</v>
+      </c>
+      <c r="H69">
+        <v>233</v>
+      </c>
+      <c r="I69">
+        <v>118.67</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>6</v>
+      </c>
+      <c r="M69">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N69">
+        <v>12</v>
+      </c>
+      <c r="O69">
+        <v>17.692</v>
+      </c>
+      <c r="P69">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q69">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R69" t="s">
+        <v>48</v>
+      </c>
+      <c r="S69" t="s">
+        <v>49</v>
+      </c>
+      <c r="T69" t="s">
+        <v>50</v>
+      </c>
+      <c r="U69" t="s">
+        <v>51</v>
+      </c>
+      <c r="V69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>14.7369605314377</v>
+      </c>
+      <c r="H70">
+        <v>233</v>
+      </c>
+      <c r="I70">
+        <v>118.67</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>6</v>
+      </c>
+      <c r="M70">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N70">
+        <v>12</v>
+      </c>
+      <c r="O70">
+        <v>17.692</v>
+      </c>
+      <c r="P70">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q70">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R70" t="s">
+        <v>48</v>
+      </c>
+      <c r="S70" t="s">
+        <v>49</v>
+      </c>
+      <c r="T70" t="s">
+        <v>50</v>
+      </c>
+      <c r="U70" t="s">
+        <v>51</v>
+      </c>
+      <c r="V70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71">
+        <v>0.009090000000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.0209438914952655</v>
+      </c>
+      <c r="H71">
+        <v>0.138689802630543</v>
+      </c>
+      <c r="I71">
+        <v>0.09167</v>
+      </c>
+      <c r="L71">
+        <v>0.00506</v>
+      </c>
+      <c r="M71">
+        <v>0.03321</v>
+      </c>
+      <c r="N71">
+        <v>0.04021</v>
+      </c>
+      <c r="O71">
+        <v>0.05426</v>
+      </c>
+      <c r="P71">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q71">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R71" t="s">
+        <v>48</v>
+      </c>
+      <c r="S71" t="s">
+        <v>49</v>
+      </c>
+      <c r="T71" t="s">
+        <v>50</v>
+      </c>
+      <c r="U71" t="s">
+        <v>51</v>
+      </c>
+      <c r="V71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72">
+        <v>0.009090000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.0209438914952655</v>
+      </c>
+      <c r="H72">
+        <v>0.138689802630543</v>
+      </c>
+      <c r="I72">
+        <v>0.09167</v>
+      </c>
+      <c r="L72">
+        <v>0.00506</v>
+      </c>
+      <c r="M72">
+        <v>0.03321</v>
+      </c>
+      <c r="N72">
+        <v>0.04021</v>
+      </c>
+      <c r="O72">
+        <v>0.05426</v>
+      </c>
+      <c r="P72">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q72">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R72" t="s">
+        <v>48</v>
+      </c>
+      <c r="S72" t="s">
+        <v>49</v>
+      </c>
+      <c r="T72" t="s">
+        <v>50</v>
+      </c>
+      <c r="U72" t="s">
+        <v>51</v>
+      </c>
+      <c r="V72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73">
+        <v>0.033</v>
+      </c>
+      <c r="G73">
+        <v>0.102994251397565</v>
+      </c>
+      <c r="H73">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="I73">
+        <v>0.44935</v>
+      </c>
+      <c r="L73">
+        <v>0.0065</v>
+      </c>
+      <c r="M73">
+        <v>0.1651</v>
+      </c>
+      <c r="N73">
+        <v>0.24304</v>
+      </c>
+      <c r="O73">
+        <v>0.42946</v>
+      </c>
+      <c r="P73">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q73">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R73" t="s">
+        <v>48</v>
+      </c>
+      <c r="S73" t="s">
+        <v>49</v>
+      </c>
+      <c r="T73" t="s">
+        <v>50</v>
+      </c>
+      <c r="U73" t="s">
+        <v>51</v>
+      </c>
+      <c r="V73" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74">
+        <v>7.73</v>
+      </c>
+      <c r="G74">
+        <v>7.7832</v>
+      </c>
+      <c r="H74">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="I74">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="L74">
+        <v>7.73</v>
+      </c>
+      <c r="M74">
+        <v>8.065</v>
+      </c>
+      <c r="N74">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="O74">
+        <v>8.51</v>
+      </c>
+      <c r="P74">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q74">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R74" t="s">
+        <v>48</v>
+      </c>
+      <c r="S74" t="s">
+        <v>49</v>
+      </c>
+      <c r="T74" t="s">
+        <v>50</v>
+      </c>
+      <c r="U74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75">
+        <v>1.02</v>
+      </c>
+      <c r="G75">
+        <v>1.1021568627451</v>
+      </c>
+      <c r="H75">
+        <v>2.21</v>
+      </c>
+      <c r="I75">
+        <v>1.51</v>
+      </c>
+      <c r="L75">
+        <v>1.02</v>
+      </c>
+      <c r="M75">
+        <v>1.293</v>
+      </c>
+      <c r="N75">
+        <v>1.3415</v>
+      </c>
+      <c r="O75">
+        <v>1.481</v>
+      </c>
+      <c r="P75">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q75">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R75" t="s">
+        <v>48</v>
+      </c>
+      <c r="S75" t="s">
+        <v>49</v>
+      </c>
+      <c r="T75" t="s">
+        <v>50</v>
+      </c>
+      <c r="U75" t="s">
+        <v>51</v>
+      </c>
+      <c r="V75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76">
+        <v>1.02</v>
+      </c>
+      <c r="G76">
+        <v>1.1021568627451</v>
+      </c>
+      <c r="H76">
+        <v>2.21</v>
+      </c>
+      <c r="I76">
+        <v>1.51</v>
+      </c>
+      <c r="L76">
+        <v>1.02</v>
+      </c>
+      <c r="M76">
+        <v>1.293</v>
+      </c>
+      <c r="N76">
+        <v>1.3415</v>
+      </c>
+      <c r="O76">
+        <v>1.481</v>
+      </c>
+      <c r="P76">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q76">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R76" t="s">
+        <v>48</v>
+      </c>
+      <c r="S76" t="s">
+        <v>49</v>
+      </c>
+      <c r="T76" t="s">
+        <v>50</v>
+      </c>
+      <c r="U76" t="s">
+        <v>51</v>
+      </c>
+      <c r="V76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77">
+        <v>0.059</v>
+      </c>
+      <c r="G77">
+        <v>0.0712156862745098</v>
+      </c>
+      <c r="H77">
+        <v>0.51</v>
+      </c>
+      <c r="I77">
+        <v>0.1217</v>
+      </c>
+      <c r="L77">
+        <v>0.066</v>
+      </c>
+      <c r="M77">
+        <v>0.0866</v>
+      </c>
+      <c r="N77">
+        <v>0.08883000000000001</v>
+      </c>
+      <c r="O77">
+        <v>0.1131</v>
+      </c>
+      <c r="P77">
+        <v>1779379.32093</v>
+      </c>
+      <c r="Q77">
+        <v>5572535.10786</v>
+      </c>
+      <c r="R77" t="s">
+        <v>48</v>
+      </c>
+      <c r="S77" t="s">
+        <v>49</v>
+      </c>
+      <c r="T77" t="s">
+        <v>50</v>
+      </c>
+      <c r="U77" t="s">
+        <v>51</v>
+      </c>
+      <c r="V77" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
